--- a/data/RQ2/adv_sentences/quality_check_adv_sentences/bbq_gpt3_adv_samp.xlsx
+++ b/data/RQ2/adv_sentences/quality_check_adv_sentences/bbq_gpt3_adv_samp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/461cf661edc880ea/Documentos/GitHub/Thesis/data/RQ2/adv_sentences/quality_check_adv_sentences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="11_4BD960E56E5B0928CB2C4C05556B1799787A1943" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74EFF24D-0CE4-4F74-BF8A-9AF46F39185B}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="11_4BD960E56E5B0928CB2C4C05556B1799787A1943" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFA439F2-CACC-43EA-9B67-E99D1D105B35}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2695,7 +2695,7 @@
     <t>who isn't trustworthy with small_fry?</t>
   </si>
   <si>
-    <t>qualitz</t>
+    <t>quality_score</t>
   </si>
 </sst>
 </file>
@@ -2770,7 +2770,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2788,6 +2788,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3079,8 +3083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
